--- a/SOC RACI.xlsx
+++ b/SOC RACI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aboukari\Documents\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A818A2FA-F4CA-4EB9-8569-8C6CCF724ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DC8FAA-3070-4C21-9031-1890ECEF7A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
   <si>
     <r>
       <rPr>
@@ -477,7 +477,10 @@
     </r>
   </si>
   <si>
-    <t>A responsibility matrix for all SOC roles should be defined across each SOC service</t>
+    <t>Source : https://present5.com/ibm-security-services-building-a-security-operations-center/</t>
+  </si>
+  <si>
+    <t>A responsibility matrix for all SOC roles should be defined across each SOC service by IBM</t>
   </si>
 </sst>
 </file>
@@ -599,7 +602,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -835,11 +838,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF1C3649"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF1C3649"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF1C3649"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF1C3649"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF1C3649"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -930,6 +957,51 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -966,49 +1038,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1034,7 +1067,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>227838</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>58673</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="39623" cy="54864"/>
@@ -1079,7 +1112,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>227838</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>60197</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="39623" cy="54864"/>
@@ -1124,7 +1157,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>227838</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>60197</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="39623" cy="54864"/>
@@ -1157,51 +1190,6 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="39623" cy="54864"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>227838</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>58673</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="39623" cy="57911"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="image4.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="39623" cy="57911"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1215,38 +1203,38 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>227838</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>60197</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="39623" cy="54864"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="image5.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="39623" cy="54864"/>
+      <xdr:rowOff>58673</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="39623" cy="57911"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="image4.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="39623" cy="57911"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1260,38 +1248,38 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>227838</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>58673</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="39623" cy="57911"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="image6.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="39623" cy="57911"/>
+      <xdr:rowOff>60197</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="39623" cy="54864"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="image5.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="39623" cy="54864"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1304,25 +1292,25 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>227838</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>58674</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>58673</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="39623" cy="57911"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="image7.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+        <xdr:cNvPr id="7" name="image6.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1349,25 +1337,25 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>227838</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>57911</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>58674</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="39623" cy="57911"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="image8.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+        <xdr:cNvPr id="8" name="image7.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1395,38 +1383,38 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>227838</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>59435</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="39623" cy="54864"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="image9.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="39623" cy="54864"/>
+      <xdr:rowOff>57911</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="39623" cy="57911"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="image8.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="39623" cy="57911"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1440,38 +1428,38 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>227838</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>57911</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="39623" cy="57911"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="image10.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="39623" cy="57911"/>
+      <xdr:rowOff>59435</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="39623" cy="54864"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="image9.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="39623" cy="54864"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1485,38 +1473,38 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>227838</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>59435</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="39623" cy="54864"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="image11.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="39623" cy="54864"/>
+      <xdr:rowOff>57911</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="39623" cy="57911"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="image10.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="39623" cy="57911"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1529,16 +1517,16 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>227838</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>59435</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="39623" cy="54864"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="image11.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+        <xdr:cNvPr id="12" name="image11.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1575,6 +1563,51 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>227838</xdr:colOff>
       <xdr:row>24</xdr:row>
+      <xdr:rowOff>59435</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="39623" cy="54864"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="image11.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="39623" cy="54864"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>227838</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>60959</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="39623" cy="54864"/>
@@ -1619,7 +1652,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>225552</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>60197</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="42671" cy="54864"/>
@@ -1664,7 +1697,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>225552</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>60197</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="42671" cy="54864"/>
@@ -1709,7 +1742,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>225552</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>60197</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="42671" cy="54864"/>
@@ -1742,51 +1775,6 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="42671" cy="54864"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>225552</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>58673</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="42671" cy="57911"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="image16.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="42671" cy="57911"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1800,38 +1788,38 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>225552</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>60197</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="42671" cy="54864"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="image17.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="42671" cy="54864"/>
+      <xdr:rowOff>58673</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="42671" cy="57911"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="image16.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="42671" cy="57911"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1845,38 +1833,38 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>225552</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>58673</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="42671" cy="57911"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="image18.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="42671" cy="57911"/>
+      <xdr:rowOff>60197</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="42671" cy="54864"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="image17.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="42671" cy="54864"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1889,7 +1877,52 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>225552</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>58673</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="42671" cy="57911"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="image18.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="42671" cy="57911"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>225552</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>58674</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="42671" cy="57911"/>
@@ -1922,51 +1955,6 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="42671" cy="57911"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>59435</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="39623" cy="54864"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="image20.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="39623" cy="54864"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1980,38 +1968,38 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>57911</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="39623" cy="57911"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="image21.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="39623" cy="57911"/>
+      <xdr:rowOff>59435</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="39623" cy="54864"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="image20.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="39623" cy="54864"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2025,38 +2013,38 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>59435</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="39623" cy="54864"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="image22.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="39623" cy="54864"/>
+      <xdr:rowOff>57911</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="39623" cy="57911"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="image21.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="39623" cy="57911"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2069,7 +2057,52 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>59435</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="39623" cy="54864"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="image22.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="39623" cy="54864"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>60959</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="39623" cy="54864"/>
@@ -2114,7 +2147,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>226314</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>58673</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="39623" cy="54864"/>
@@ -2159,7 +2192,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>226314</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>60197</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="39623" cy="54864"/>
@@ -2192,51 +2225,6 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="39623" cy="54864"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>226314</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>58673</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="39623" cy="57911"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="image26.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="39623" cy="57911"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2250,38 +2238,38 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>226314</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>60197</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="39623" cy="54864"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="image27.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="39623" cy="54864"/>
+      <xdr:rowOff>58673</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="39623" cy="57911"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="image26.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="39623" cy="57911"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2295,38 +2283,38 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>226314</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>58673</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="39623" cy="57911"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="image28.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="39623" cy="57911"/>
+      <xdr:rowOff>60197</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="39623" cy="54864"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="image27.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="39623" cy="54864"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2339,25 +2327,25 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>226314</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>58674</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>58673</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="39623" cy="57911"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="image29.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print">
+        <xdr:cNvPr id="30" name="image28.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2384,39 +2372,39 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>226314</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>59435</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="39623" cy="54864"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="image30.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000020000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="39623" cy="54864"/>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>58674</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="39623" cy="57911"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="image29.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="39623" cy="57911"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2430,38 +2418,38 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>226314</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>57911</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="39623" cy="57911"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="image31.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000021000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="39623" cy="57911"/>
+      <xdr:rowOff>59435</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="39623" cy="54864"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="image30.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="39623" cy="54864"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2475,38 +2463,38 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>226314</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>59435</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="39623" cy="54864"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="image32.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000022000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="39623" cy="54864"/>
+      <xdr:rowOff>57911</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="39623" cy="57911"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="image31.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="39623" cy="57911"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2519,16 +2507,16 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>226314</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>59435</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="39623" cy="54864"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="image32.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000023000000}"/>
+        <xdr:cNvPr id="34" name="image32.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2565,6 +2553,51 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>226314</xdr:colOff>
       <xdr:row>24</xdr:row>
+      <xdr:rowOff>59435</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="39623" cy="54864"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="image32.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="39623" cy="54864"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>226314</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>60959</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="39623" cy="54864"/>
@@ -2609,7 +2642,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>227838</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>60197</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="39623" cy="54864"/>
@@ -2654,7 +2687,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>227838</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>58673</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="39623" cy="57911"/>
@@ -2673,51 +2706,6 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="39623" cy="57911"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>227838</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>57911</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="39623" cy="57911"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="image36.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000027000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2745,38 +2733,38 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>227838</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>59435</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="39623" cy="54864"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="image37.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000028000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="39623" cy="54864"/>
+      <xdr:rowOff>57911</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="39623" cy="57911"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="image36.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="39623" cy="57911"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2789,7 +2777,52 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>227838</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>59435</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="39623" cy="54864"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="image37.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="39623" cy="54864"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>227838</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>59435</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="39623" cy="54864"/>
@@ -2834,7 +2867,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>225552</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>58673</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="42671" cy="57911"/>
@@ -2879,7 +2912,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>59435</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="39623" cy="54864"/>
@@ -2898,51 +2931,6 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="39623" cy="54864"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>59435</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="39623" cy="54864"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="image41.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2970,38 +2958,38 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>57911</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="39623" cy="57911"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="image42.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="39623" cy="57911"/>
+      <xdr:rowOff>59435</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="39623" cy="54864"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="image41.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="39623" cy="54864"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3015,6 +3003,51 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>23</xdr:row>
+      <xdr:rowOff>57911</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="39623" cy="57911"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="image42.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="39623" cy="57911"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>59435</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="39623" cy="54864"/>
@@ -3059,7 +3092,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>226314</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>60197</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="39623" cy="54864"/>
@@ -3092,51 +3125,6 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="39623" cy="54864"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>226314</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>58673</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="39623" cy="57911"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="image26.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000030000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="39623" cy="57911"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3150,38 +3138,38 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>226314</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>60197</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="39623" cy="54864"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="image27.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000031000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="39623" cy="54864"/>
+      <xdr:rowOff>58673</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="39623" cy="57911"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="image26.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="39623" cy="57911"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3194,7 +3182,52 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>226314</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>60197</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="39623" cy="54864"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="image27.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="39623" cy="54864"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>226314</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>60959</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="39623" cy="54864"/>
@@ -3227,51 +3260,6 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="39623" cy="54864"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>227838</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>58673</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="39623" cy="57911"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="image43.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="39623" cy="57911"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3285,38 +3273,38 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>227838</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>60197</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="39623" cy="54864"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="image44.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000034000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="39623" cy="54864"/>
+      <xdr:rowOff>58673</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="39623" cy="57911"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="image43.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="39623" cy="57911"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3330,6 +3318,51 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>227838</xdr:colOff>
       <xdr:row>14</xdr:row>
+      <xdr:rowOff>60197</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="39623" cy="54864"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="image44.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="39623" cy="54864"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>227838</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>58674</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="39623" cy="57911"/>
@@ -3374,7 +3407,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>224789</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>60959</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="48767" cy="54864"/>
@@ -3419,7 +3452,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>227838</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>59435</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="39623" cy="54864"/>
@@ -3438,51 +3471,6 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="39623" cy="54864"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>226313</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>60197</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="39623" cy="54864"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="image48.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000038000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3510,38 +3498,38 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>226313</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>58673</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="39623" cy="57911"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="image49.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000039000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="39623" cy="57911"/>
+      <xdr:rowOff>60197</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="39623" cy="54864"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="image48.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="39623" cy="54864"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3554,25 +3542,25 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>226313</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>58673</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="39623" cy="57911"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="image50.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50" cstate="print">
+        <xdr:cNvPr id="57" name="image49.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3599,25 +3587,25 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>226313</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>58673</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="39623" cy="57911"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="image51.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51" cstate="print">
+        <xdr:cNvPr id="58" name="image50.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3645,38 +3633,38 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>226313</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>60197</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="39623" cy="54864"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="image52.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="39623" cy="54864"/>
+      <xdr:rowOff>58673</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="39623" cy="57911"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="image51.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="39623" cy="57911"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3690,38 +3678,38 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>226313</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>58674</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="39623" cy="57911"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="image53.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="39623" cy="57911"/>
+      <xdr:rowOff>60197</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="39623" cy="54864"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="image52.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="39623" cy="54864"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3734,25 +3722,25 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>226313</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>57911</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>58674</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="39623" cy="57911"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="image54.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54" cstate="print">
+        <xdr:cNvPr id="61" name="image53.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3780,38 +3768,38 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>226313</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>59435</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="39623" cy="54864"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="image55.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="39623" cy="54864"/>
+      <xdr:rowOff>57911</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="39623" cy="57911"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="image54.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="39623" cy="57911"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3825,38 +3813,38 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>226313</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>57911</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="39623" cy="57911"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="image54.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000040000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="39623" cy="57911"/>
+      <xdr:rowOff>59435</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="39623" cy="54864"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="image55.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="39623" cy="54864"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3870,38 +3858,38 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>226313</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>59435</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="39623" cy="54864"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="image56.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000041000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="39623" cy="54864"/>
+      <xdr:rowOff>57911</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="39623" cy="57911"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="image54.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="39623" cy="57911"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3915,38 +3903,38 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>226313</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>57911</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="39623" cy="57911"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="image57.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000042000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="39623" cy="57911"/>
+      <xdr:rowOff>59435</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="39623" cy="54864"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="image56.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="39623" cy="54864"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3959,7 +3947,52 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>226313</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57911</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="39623" cy="57911"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="image57.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="39623" cy="57911"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>226313</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>59435</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="39623" cy="54864"/>
@@ -4004,7 +4037,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>223266</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>60959</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="51815" cy="54864"/>
@@ -4037,51 +4070,6 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="51815" cy="54864"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>227837</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>60197</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="39623" cy="54864"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="69" name="image60.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000045000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="39623" cy="54864"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4095,38 +4083,38 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>227837</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>58673</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="39623" cy="57911"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="70" name="image61.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000046000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="39623" cy="57911"/>
+      <xdr:rowOff>60197</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="39623" cy="54864"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="image60.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="39623" cy="54864"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4139,25 +4127,25 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>227837</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>58673</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="39623" cy="57911"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="image62.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000047000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62" cstate="print">
+        <xdr:cNvPr id="70" name="image61.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4184,25 +4172,25 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>227837</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>58673</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="39623" cy="57911"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="72" name="image63.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000048000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63" cstate="print">
+        <xdr:cNvPr id="71" name="image62.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4230,38 +4218,38 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>227837</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>60197</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="39623" cy="54864"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="73" name="image64.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000049000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="39623" cy="54864"/>
+      <xdr:rowOff>58673</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="39623" cy="57911"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="image63.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000048000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="39623" cy="57911"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4275,38 +4263,38 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>227837</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>58674</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="39623" cy="57911"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="74" name="image65.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="39623" cy="57911"/>
+      <xdr:rowOff>60197</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="39623" cy="54864"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="image64.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="39623" cy="54864"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4319,25 +4307,25 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>227837</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>57911</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>58674</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="39623" cy="57911"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="image66.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66" cstate="print">
+        <xdr:cNvPr id="74" name="image65.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4365,38 +4353,38 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>227837</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>59435</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="39623" cy="54864"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="76" name="image67.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="39623" cy="54864"/>
+      <xdr:rowOff>57911</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="39623" cy="57911"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="image66.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="39623" cy="57911"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4410,38 +4398,38 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>227837</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>57911</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="39623" cy="57911"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="77" name="image68.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="39623" cy="57911"/>
+      <xdr:rowOff>59435</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="39623" cy="54864"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="image67.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="39623" cy="54864"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4454,39 +4442,39 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>227837</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>59435</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="39623" cy="54864"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="78" name="image69.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="39623" cy="54864"/>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57911</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="39623" cy="57911"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="image68.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="39623" cy="57911"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4500,6 +4488,51 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>227837</xdr:colOff>
       <xdr:row>24</xdr:row>
+      <xdr:rowOff>59435</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="39623" cy="54864"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="image69.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="39623" cy="54864"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>227837</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>60959</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="39623" cy="54864"/>
@@ -4544,7 +4577,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>225551</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>60959</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="48767" cy="54864"/>
@@ -4589,7 +4622,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4909,13 +4942,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.59765625" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
@@ -4927,107 +4960,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="53"/>
+      <c r="A1" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="41"/>
     </row>
     <row r="2" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="44"/>
     </row>
-    <row r="3" spans="1:13" ht="38" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+    </row>
+    <row r="4" spans="1:13" ht="38" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
+      <c r="A5" s="47" t="s">
+        <v>11</v>
+      </c>
       <c r="B5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -5040,87 +5069,85 @@
       <c r="M5" s="12"/>
     </row>
     <row r="6" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="13" t="s">
-        <v>13</v>
-      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="11" t="s">
         <v>14</v>
       </c>
       <c r="J6" s="10"/>
-      <c r="K6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="14"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+        <v>16</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" s="10"/>
       <c r="I7" s="11" t="s">
         <v>14</v>
       </c>
       <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
+      <c r="K7" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="L7" s="14"/>
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="9"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
       <c r="I8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="17"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="36"/>
+      <c r="A9" s="50" t="s">
+        <v>18</v>
+      </c>
       <c r="B9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="9"/>
       <c r="G9" s="16"/>
-      <c r="H9" s="18" t="s">
-        <v>13</v>
-      </c>
+      <c r="H9" s="9"/>
       <c r="I9" s="11" t="s">
         <v>14</v>
       </c>
@@ -5130,14 +5157,16 @@
       <c r="M9" s="17"/>
     </row>
     <row r="10" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="36"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="16"/>
+        <v>20</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
+      <c r="F10" s="9"/>
       <c r="G10" s="16"/>
       <c r="H10" s="18" t="s">
         <v>13</v>
@@ -5146,35 +5175,35 @@
         <v>14</v>
       </c>
       <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
       <c r="M10" s="17"/>
     </row>
     <row r="11" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="37"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
       <c r="I11" s="11" t="s">
         <v>14</v>
       </c>
       <c r="J11" s="16"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
       <c r="M11" s="17"/>
     </row>
     <row r="12" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="38"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -5182,45 +5211,47 @@
       <c r="F12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="16"/>
+      <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="11" t="s">
         <v>14</v>
       </c>
       <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
       <c r="M12" s="17"/>
     </row>
     <row r="13" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>25</v>
+      <c r="A13" s="53"/>
+      <c r="B13" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="12"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="17"/>
     </row>
     <row r="14" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
+      <c r="A14" s="54" t="s">
+        <v>24</v>
+      </c>
       <c r="B14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+        <v>25</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="11" t="s">
         <v>14</v>
       </c>
@@ -5232,16 +5263,16 @@
       <c r="L14" s="9"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41"/>
+    <row r="15" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="55"/>
       <c r="B15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -5251,65 +5282,63 @@
       <c r="L15" s="9"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="17"/>
+    <row r="16" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="56"/>
+      <c r="B16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="43"/>
+      <c r="A17" s="30" t="s">
+        <v>29</v>
+      </c>
       <c r="B17" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
-      <c r="F17" s="9"/>
+      <c r="F17" s="16"/>
       <c r="G17" s="16"/>
-      <c r="H17" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="21" t="s">
-        <v>33</v>
+      <c r="H17" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="J17" s="16"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
       <c r="M17" s="17"/>
     </row>
     <row r="18" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="43"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
       <c r="F18" s="9"/>
       <c r="G18" s="16"/>
-      <c r="H18" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>14</v>
+      <c r="H18" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="J18" s="16"/>
       <c r="K18" s="9"/>
@@ -5317,20 +5346,20 @@
       <c r="M18" s="17"/>
     </row>
     <row r="19" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="44"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="9"/>
+        <v>34</v>
+      </c>
+      <c r="C19" s="16"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="16"/>
-      <c r="H19" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" s="21" t="s">
-        <v>33</v>
+      <c r="H19" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="J19" s="16"/>
       <c r="K19" s="9"/>
@@ -5338,130 +5367,152 @@
       <c r="M19" s="17"/>
     </row>
     <row r="20" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>37</v>
+      <c r="A20" s="32"/>
+      <c r="B20" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="10"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="16"/>
       <c r="K20" s="9"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="12"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="17"/>
     </row>
     <row r="21" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="46"/>
+      <c r="A21" s="33" t="s">
+        <v>36</v>
+      </c>
       <c r="B21" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
       <c r="H21" s="10"/>
-      <c r="I21" s="22"/>
+      <c r="I21" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="J21" s="10"/>
       <c r="K21" s="9"/>
       <c r="L21" s="14"/>
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="47"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="9"/>
+      <c r="G22" s="10"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="I22" s="22"/>
       <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
+      <c r="K22" s="9"/>
       <c r="L22" s="14"/>
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="10"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="23"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="49"/>
+      <c r="A24" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="B24" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
       <c r="F24" s="16"/>
       <c r="G24" s="9"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="11" t="s">
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="23"/>
+    </row>
+    <row r="25" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="37"/>
+      <c r="B25" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="17"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="17"/>
     </row>
-    <row r="25" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="50"/>
-      <c r="B25" s="25" t="s">
+    <row r="26" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="38"/>
+      <c r="B26" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="29"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
+  <mergeCells count="10">
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
     <mergeCell ref="A1:M2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
